--- a/mysql/Books Excel.xlsx
+++ b/mysql/Books Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>KodeBuku</t>
   </si>
@@ -41,64 +41,67 @@
     <t>ISBN</t>
   </si>
   <si>
-    <t>edition</t>
-  </si>
-  <si>
-    <t>TraceContents</t>
-  </si>
-  <si>
-    <t>DiscriptionBook</t>
+    <t>editioni</t>
+  </si>
+  <si>
+    <t>traceContents</t>
+  </si>
+  <si>
+    <t>DiskripsiBuku</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
+    <t>Publikasi</t>
+  </si>
+  <si>
+    <t>bibiografi</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
+  <si>
+    <t>collation</t>
+  </si>
+  <si>
+    <t>number_investaris</t>
+  </si>
+  <si>
+    <t>NoPanggil1</t>
+  </si>
+  <si>
+    <t>NoPanggil2</t>
+  </si>
+  <si>
+    <t>NoPanggil3</t>
+  </si>
+  <si>
+    <t>info1</t>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Isbn</t>
+  </si>
+  <si>
+    <t>edisi</t>
+  </si>
+  <si>
+    <t>discriptionBook</t>
+  </si>
+  <si>
     <t>publisher</t>
-  </si>
-  <si>
-    <t>bibiografi</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>author2</t>
-  </si>
-  <si>
-    <t>collation</t>
-  </si>
-  <si>
-    <t>number_investaris</t>
-  </si>
-  <si>
-    <t>no_panggil_1</t>
-  </si>
-  <si>
-    <t>no_panggil_2</t>
-  </si>
-  <si>
-    <t>no_panggil_3</t>
-  </si>
-  <si>
-    <t>info1</t>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Isbn</t>
-  </si>
-  <si>
-    <t>traceContents</t>
-  </si>
-  <si>
-    <t>discriptionBook</t>
   </si>
   <si>
     <t>index</t>
@@ -121,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,7 +144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,11 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +191,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -195,19 +205,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -215,22 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -238,53 +257,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +308,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,90 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,18 +470,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +493,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,54 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,149 +587,147 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Y2"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01666666666667" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1063,16 +1066,20 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="12.9083333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.5166666666667" customWidth="1"/>
     <col min="12" max="12" width="13.8166666666667" customWidth="1"/>
     <col min="13" max="13" width="15.8416666666667" customWidth="1"/>
     <col min="14" max="15" width="13.3166666666667" customWidth="1"/>
+    <col min="19" max="19" width="17.825" customWidth="1"/>
+    <col min="20" max="20" width="18.0583333333333" customWidth="1"/>
+    <col min="21" max="21" width="14.575" customWidth="1"/>
     <col min="22" max="22" width="21.1833333333333" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="15.2" customWidth="1"/>
     <col min="25" max="25" width="15.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,47 +1113,47 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>12222</v>
       </c>
@@ -1172,51 +1179,51 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>2001</v>
       </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
         <v>23</v>
       </c>
     </row>
